--- a/lib/db/dbdesign/dbdesign.xlsx
+++ b/lib/db/dbdesign/dbdesign.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dosyalar\Flutter\ArtExhibition\art_exhibition_app\lib\db\dbdesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4BEBC8-E610-45E7-A3FC-EEABEB2C4717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB268C21-C24D-4F16-A5CC-89BAD5C2BCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6E9A53E9-D70F-4D45-8C82-F1E37DD5C097}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="akimlar" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="231">
   <si>
     <t>id</t>
   </si>
@@ -47,9 +48,6 @@
     <t xml:space="preserve">sehir </t>
   </si>
   <si>
-    <t>sehirler</t>
-  </si>
-  <si>
     <t>prag</t>
   </si>
   <si>
@@ -68,9 +66,6 @@
     <t>rome</t>
   </si>
   <si>
-    <t>semtler</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -89,31 +84,19 @@
     <t>f</t>
   </si>
   <si>
-    <t>müzeler</t>
-  </si>
-  <si>
     <t>isim</t>
   </si>
   <si>
     <t>hakkında</t>
   </si>
   <si>
-    <t>sanatçılar</t>
-  </si>
-  <si>
     <t>akım ismi</t>
   </si>
   <si>
-    <t>akımlar</t>
-  </si>
-  <si>
     <t>z</t>
   </si>
   <si>
     <t>sanatçı</t>
-  </si>
-  <si>
-    <t>malzeme</t>
   </si>
   <si>
     <t>yıl</t>
@@ -299,9 +282,6 @@
     </r>
   </si>
   <si>
-    <t>ülke</t>
-  </si>
-  <si>
     <t>ülke ismi</t>
   </si>
   <si>
@@ -369,9 +349,6 @@
     <t>eser ismi</t>
   </si>
   <si>
-    <t>yılı</t>
-  </si>
-  <si>
     <t>user name</t>
   </si>
   <si>
@@ -379,9 +356,6 @@
   </si>
   <si>
     <t>malzeme id</t>
-  </si>
-  <si>
-    <t>yesil tablolar veri tabanına döküldü</t>
   </si>
   <si>
     <r>
@@ -447,9 +421,6 @@
     <t>malzeme ismi</t>
   </si>
   <si>
-    <t>hakkında (kalıtım)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">eser id </t>
     </r>
@@ -467,27 +438,15 @@
     </r>
   </si>
   <si>
-    <t>eserler (kalıtım)</t>
-  </si>
-  <si>
     <t>&lt;-- her Pazartesi yenilensin</t>
   </si>
   <si>
-    <t>sanatçılar hakkında (i)</t>
-  </si>
-  <si>
-    <t>eserler hakkında (a)</t>
-  </si>
-  <si>
     <t>müzeler hakkinda (m)</t>
   </si>
   <si>
     <t>akım hakkında (o)</t>
   </si>
   <si>
-    <t>hakkında kısmı bitti.</t>
-  </si>
-  <si>
     <t>kimin hakkında (hangi tablo)</t>
   </si>
   <si>
@@ -498,9 +457,6 @@
   </si>
   <si>
     <t>o</t>
-  </si>
-  <si>
-    <t>eser türleri hakkında (t)</t>
   </si>
   <si>
     <t>t</t>
@@ -526,28 +482,10 @@
     <t>Kullanıcılar Kısmı Yapıldı</t>
   </si>
   <si>
-    <t>opsiyonel/yapılmadı</t>
-  </si>
-  <si>
-    <t>sol kısım bitti</t>
-  </si>
-  <si>
-    <t>dekoratif sanat (d)</t>
-  </si>
-  <si>
-    <t>heykeller (s)</t>
-  </si>
-  <si>
-    <t>tablolar (p)</t>
-  </si>
-  <si>
     <t>dünya harikaları (w)</t>
   </si>
   <si>
     <t>antik kentler (a)</t>
-  </si>
-  <si>
-    <t>mimari (r)</t>
   </si>
   <si>
     <r>
@@ -618,14 +556,544 @@
     </r>
   </si>
   <si>
-    <t>eserler yapıldı Kısmı Yapıldı</t>
+    <t>The designation ‘Abstract Expressionism’ encompasses a wide variety of American 20th-century art movements in abstract art. Also known as The New York School, this movement includes large painted canvases, sculptures and other media as well. The term ‘action painting’ is associated with Abstract Expressionism, describing a highly dynamic and spontaneous application of vigorous brushstrokes and the effects of dripping and spilling paint onto the canvas.</t>
+  </si>
+  <si>
+    <t>Emerging in France before the First World War, Art Deco exploded in 1925 on the occasion of the Exposition des Arts Décoratifs (Exhibition of Decorative Arts). Blurring the line between different mediums and fields, from architecture and furniture to clothing and jewelry, Art Deco merged modern aesthetic with skillful craftsmanship, advanced technology, and elegant materials.</t>
+  </si>
+  <si>
+    <t>A decorative style that flourished between 1890 and 1910 throughout Europe and the U.S. Art Nouveau, also called Jugendstil (Germany) and Sezessionstil (Austria), is characterized by sinuous, asymmetrical lines based on organic forms. Although it influenced painting and sculpture, its chief manifestations were in architecture and the decorative and graphic arts, aiming to create a new style, free of the imitative historicism that dominated much of 19th-century art movements and design.</t>
+  </si>
+  <si>
+    <t>The term Baroque, derived from the Portuguese ‘barocco’ meaning ‘irregular pearl or stone’,  is a movement in art and architecture developed in Europe from the early seventeenth to mid-eighteenth century. Baroque emphasizes dramatic, exaggerated motion and clear, easily interpreted, detail, which is a far cry from Surrealism, to produce drama, tension, exuberance, and grandeur.</t>
+  </si>
+  <si>
+    <t>The school of art and design was founded in Germany by Walter Gropius in 1919 and shut down by the Nazis in 1933. The faculty brought together artists, architects, and designers, and developed an experimental pedagogy that focused on materials and functions rather than traditional art school methodologies. In its successive incarnations in Weimar, Dessau, and Berlin, it became the site of influential conversations about the role of modern art and design in society.</t>
+  </si>
+  <si>
+    <t>The principles embodied in the styles, theories, or philosophies of the different types of art from ancient Greece and Rome, concentrating on traditional forms with a focus on elegance and symmetry.</t>
+  </si>
+  <si>
+    <t>Often associated with Abstract Expressionism, the Colour Field painters were concerned with the use of pure abstraction but rejected the active gestures typical of Action Painting in favor of expressing the sublime through large and flat surfaces of contemplative colour and open compositions.</t>
+  </si>
+  <si>
+    <t>Conceptual art, sometimes simply called conceptualism, was one of several 20th-century art movements that arose during the 1960s, emphasizing ideas and theoretical practices rather than the creation of visual forms. The term was coined in 1967 by the artist Sol LeWitt, who gave the new genre its name in his essay “Paragraphs on Conceptual Art,” in which he wrote, “The idea itself, even if not made visual, is as much a work of art as any finished product.”</t>
+  </si>
+  <si>
+    <t>An artistic movement began in 1907 by artists Pablo Picasso and Georges Braque who developed a visual language whose geometric planes challenged the conventions of representation in different types of art, by reinventing traditional subjects such as nudes, landscapes, and still lifes as increasingly fragmented compositions.</t>
+  </si>
+  <si>
+    <t>Digital Art broadly covers a variety of creative practices that employ different electronic technologies and result in a final product that is also digital. From computer graphics to virtual reality, from artificial Intelligence to NFT technology, the Digital Art spectrum is wide, innovative, and under the spotlight of the contemporary art market.</t>
+  </si>
+  <si>
+    <t>Expressionism is an international artistic movement in art, architecture, literature, and performance that flourished between 1905 and 1920, especially in Germany and Austria, that sought to express the meaning of emotional experience rather than physical reality. Conventions of the expressionist style include distortion, exaggeration, fantasy, and vivid, jarring, violent, or dynamic application of color in order to express the artist’s inner feelings or ideas.</t>
+  </si>
+  <si>
+    <t>Fairly unique among different types of art movements, it is an Italian development in abstract art and literature, founded in 1909 by Filippo Tommaso Marinetti, aiming to capture the dynamism, speed and energy of the modern mechanical world.</t>
+  </si>
+  <si>
+    <t>Impressionism is a 19th-century art movement, associated especially with French artists such as Claude Monet, Pierre Auguste Renoir, Camille Pissarro and Alfred Sisley, who attempted to accurately and objectively record visual ‘impressions’ by using small, thin, visible brushstrokes that coalesce to form a single scene and emphasize movement and the changing qualities of light.</t>
+  </si>
+  <si>
+    <t>Another one of the art movements from the 1960s, and typified by works composed of simple art, such as geometric shapes devoid of representational content. The minimal vocabulary of forms made from humble industrial materials challenged traditional notions of craftsmanship, the illusion of spatial depth in painting, and the idea that a work of abstract art must be one of a kind.</t>
+  </si>
+  <si>
+    <t>Almost the opposite of pop art in terms of inspiration, this style is one that arose in the second half of the eighteenth century in Europe, drawing inspiration from the classical art and culture of Ancient Greece and Ancient Rome, which is not uncommon for art movements.</t>
+  </si>
+  <si>
+    <t>Pop Art emerged in the 1950s and was composed of British and American artists who draw inspiration from ‘popular’ imagery and products from commercial culture as opposed to ‘elitist’ fine art. Pop art reached its peak of activity in the 1960s, emphasizing the banal or kitschy elements of everyday life in such forms as mechanically reproduced silkscreens, large-scale facsimiles, and soft pop art sculptures.</t>
+  </si>
+  <si>
+    <t>Rococo is a movement in art, particularly in architecture and decorative art, that originated in France in the early 1700s.  Rococo art characteristics consist of elaborate ornamentation and a light, sensuous style, including scrollwork, foliage, and animal forms.</t>
+  </si>
+  <si>
+    <t>Founded by the poet André Breton in Paris in 1924, Surrealism was an artistic and literary movement that was active through World War II. The main goal of Surrealism painting and Surrealism artworks was to liberate thought, language, and human experience from the oppressive boundaries of rationalism by championing the irrational, the poetic and the revolutionary.</t>
+  </si>
+  <si>
+    <t>Symbolism emerged in the second half of the 19th century, mainly in Catholic European countries where industrialisation had developed to a great degree. Starting as a literary movement, Symbolism was soon identified with a young generation of painters who wanted art to reflect emotions and ideas rather than to represent the natural world in an objective way, united by a shared pessimism and weariness of the decadence in modern society.</t>
+  </si>
+  <si>
+    <t>https://usercontent.one/wp/magazine.artland.com/wp-content/uploads/2017/07/Expressionism-300x300.jpg?media=1670318709</t>
+  </si>
+  <si>
+    <t>https://usercontent.one/wp/magazine.artland.com/wp-content/uploads/2021/03/Paul_Iribe_birds_from_Les_Ateliers_de_Martine-300x300.jpg?media=1670318709</t>
+  </si>
+  <si>
+    <t>https://usercontent.one/wp/magazine.artland.com/wp-content/uploads/2017/07/1-1-300x300.jpg?media=1670318709</t>
+  </si>
+  <si>
+    <t>https://usercontent.one/wp/magazine.artland.com/wp-content/uploads/2017/07/1-3.jpg?media=1670318709</t>
+  </si>
+  <si>
+    <t>https://usercontent.one/wp/magazine.artland.com/wp-content/uploads/2021/03/1024px-Bauhaus-Signet.svg.png?media=1670318709</t>
+  </si>
+  <si>
+    <t>https://usercontent.one/wp/magazine.artland.com/wp-content/uploads/2021/03/Poussin_Nicolas_-_Paysage_avec_Orion_aveugle_cherchant_le_soleil_-_1658.jpg?media=1670318709</t>
+  </si>
+  <si>
+    <t>https://usercontent.one/wp/magazine.artland.com/wp-content/uploads/2019/11/Winter-Sun-1962-by-Kenneth-Noland.-As-reproduced-in-Art-in-Time-1-300x300.jpg?media=1670318709</t>
+  </si>
+  <si>
+    <t>https://usercontent.one/wp/magazine.artland.com/wp-content/uploads/2017/07/1-5.jpg?media=1670318709</t>
+  </si>
+  <si>
+    <t>https://usercontent.one/wp/magazine.artland.com/wp-content/uploads/2021/03/Les_Demoiselles_dAvignon.jpg?media=1670318709</t>
+  </si>
+  <si>
+    <t>https://usercontent.one/wp/magazine.artland.com/wp-content/uploads/2022/01/Digital_Art_300x300.jpg?media=1670318709</t>
+  </si>
+  <si>
+    <t>https://usercontent.one/wp/magazine.artland.com/wp-content/uploads/2017/07/1-9.jpg?media=1670318709</t>
+  </si>
+  <si>
+    <t>https://usercontent.one/wp/magazine.artland.com/wp-content/uploads/2017/07/1-11.jpg?media=1670318709</t>
+  </si>
+  <si>
+    <t>https://usercontent.one/wp/magazine.artland.com/wp-content/uploads/2021/03/impression-sunrise-courtesy-of-musee-marmottan-uai-600x337-1.jpg?media=1670318709</t>
+  </si>
+  <si>
+    <t>https://usercontent.one/wp/magazine.artland.com/wp-content/uploads/2017/07/Untitled-1.jpg?media=1670318709</t>
+  </si>
+  <si>
+    <t>https://usercontent.one/wp/magazine.artland.com/wp-content/uploads/2021/03/1-18.jpg?media=1670318709</t>
+  </si>
+  <si>
+    <t>https://usercontent.one/wp/magazine.artland.com/wp-content/uploads/2018/02/1-21-uai-258x258.jpg?media=1670318709</t>
+  </si>
+  <si>
+    <t>https://usercontent.one/wp/magazine.artland.com/wp-content/uploads/2021/03/1-23.jpg?media=1670318709</t>
+  </si>
+  <si>
+    <t>https://usercontent.one/wp/magazine.artland.com/wp-content/uploads/2021/03/1-24.jpg?media=1670318709</t>
+  </si>
+  <si>
+    <t>https://usercontent.one/wp/magazine.artland.com/wp-content/uploads/2021/03/The_last_king.jpg?media=1670318709</t>
+  </si>
+  <si>
+    <t>Feyenoord Rotterdam was founded in 1908 and is playing in Rotterdam-Zuid ever since. From 1937 onwards, the club played in the most beautiful stadium in the Netherlands; De Kuip. Feyenoord won the first Dutch championship in 1924 and the first national title in De Kuip in 1938. Players such as Willem van Hanegem, Rinus Israel, Wim Jansen and Ove Kindvall were very important in 1970 when Feyenoord won the Europacup I. In the same year, the World Cup for club teams were also won, which made Feyenoord the first Dutch club to win both prizes. _x000D_
+The football club Feyenoord have won the UEFA Cup twice, the European Cup I once, the World Cup for Club Teams 13 times, and the KNVB Cup 15 times. To this day, Feyenoord is the last club in the Netherlands to achieve European success.</t>
+  </si>
+  <si>
+    <t>https://hwva.nl/wp-content/uploads/2020/01/feyenoord_05jpg.jpg</t>
+  </si>
+  <si>
+    <t>Illusion Art Museum Prague is the Czech Republics first museum dedicated to illusion and trick art. Spread out over three full floors in a historically-protected building, you will encounter illusion art in many different styles, some rooted deep in history, others contemporary and cutting-edge, from anamorphic installations which render renowned historical figures in unexpected ways to metallurgical painting, trick art, spatial illusions, and more! See Czech history come alive. Play with interactive exhibits, make unforgettable memories, discover how perspective can open up new worlds, and capture photos that your friends and family will love.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/p/AF1QipMs86Bs8STazl-65WBJp97byL9rHDRSHuXHH9jZ=s1360-w1360-h1020</t>
+  </si>
+  <si>
+    <t>The Ca' d'Oro or Palazzo Santa Sofia is a palace on the Grand Canal in Venice, northern Italy. One of the older palaces in the city, its name means "golden house" due to the gilt and polychrome external decorations which once adorned its walls. Since 1927, it has been used as a museum, as the Galleria Giorgio Franchetti._x000D_
+_x000D_
+It has long been regarded as the best surviving palazzo in Venetian Gothic architecture, retaining all the most characteristic features, despite some losses. On the facade, the loggia-like window group of closely spaced small columns, with heavy tracery with quatrefoil openings above, uses the formula from the Doge's Palace that had become iconic. There are also the byzantine-inspired decoration along the roofline, and patterning in fancy coloured stone to the flat wall surfaces. The smaller windows show a variety of forms with an ogee arch, capped with a relief ornament, and the edges and zone boundaries are marked with ropework reliefs.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/dd/The_Ca_D%27oro_Building_-_geograph.org.uk_-_548181.jpg</t>
+  </si>
+  <si>
+    <t>The Palazzo Mocenigo was bequeathed to the city of Venice by Alvise Nicolò Mocenigo in 1945.[4] He was the last descendant of the family and intended the palazzo to be used "as a Gallery of Art, to supplement Museo Correr". In 1985, the palazzo was designated as the Museum and Study Centre of the History of Fabrics and Costumes. The museum contains collections of textiles and costumes, mainly from the Correr, Guggenheim, and Cini collections, as well as the Palazzo Grassi. Palazzo Mocenigo also has a library on the first floor covering the history of costumes, fabrics, and fashion, especially from the 18th century._x000D_
+_x000D_
+The palace was frescoed by 18th-century artists including Giambattista Canal, Giovanni Scajaro, and Jacopo Guarana.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b6/Venezia_-_Palazzo_Mocenigo_presso_San_Stae_._Foto_di_Paolo_Steffan.jpg/375px-Venezia_-_Palazzo_Mocenigo_presso_San_Stae_._Foto_di_Paolo_Steffan.jpg</t>
+  </si>
+  <si>
+    <t>The Museo Poldi Pezzoli is an art museum in Milan, Italy. It is located near the Teatro alla Scala, on Via Manzoni 12._x000D_
+_x000D_
+The museum was originated in the 19th century as a private collection of Gian Giacomo Poldi Pezzoli (1822–1879)[1] and his mother, Rosa Trivulzio, of the family of the condottiero Gian Giacomo Trivulzio. Many of the rooms in the palace were redecorated starting in 1846, a commissions entrusted to Luigi Scrosati and Giuseppe Bertini. Individual rooms were often decorated and furnished to match the paintings hung on the walls. The architect Simone Cantoni (1736–1818) rebuilt the palazzo in its present Neoclassical style with an English-style interior garden. In 1850–1853, Poldi Pezzoli commissioned the architect Giuseppe Balzaretto to refurbish his apartment.[2]_x000D_
+_x000D_
+Pezzoli in his testament left the house and contents to the Brera Academy. Giuseppe Bertini, director of the Academy, opened the museum on 25 April 1881. During World War II, the palazzo suffered severe damage, but the artworks had been placed in safe storage. The museum was reopened in 1951 after reconstruction._x000D_
+_x000D_
+The museum is notable for its broad collection of Northern Italian and Netherlandish/Flemish artists. The exhibition includes weaponry, glassworks, ceramics, jewelry, and furnishings.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5e/Il_palazzo_che_ospita_il_Museo_Poldi-Pezzoli_in_via_Manzoni%2C_Milano.jpg/390px-Il_palazzo_che_ospita_il_Museo_Poldi-Pezzoli_in_via_Manzoni%2C_Milano.jpg</t>
+  </si>
+  <si>
+    <t>In line with constant efforts on the part of the municipal authorities to preserve the memory of the economic and social processes that have shaped the city’s identity, the Milan City Council took steps in 1990 to buy the old Ansaldo industrial plant at Porta Genova and use it for cultural services. The disused factories, authentic monuments of industrial archaeology, have been converted into studios, workshops and new creative spaces._x000D_
+In continuity with its original vocation but also in response to the need for recognition and revaluation manifested by the foreign communities that have found opportunities to develop and put down roots in the city, the Milan Council decided to create the Mudec Museum of Cultures in the old Ansaldo area to house and display the municipal collections of ethnographic material.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/30/Mudec%2C_Agor%C3%A0%2C_Ingresso_alla_Collezione_Permanente.jpg/390px-Mudec%2C_Agor%C3%A0%2C_Ingresso_alla_Collezione_Permanente.jpg</t>
+  </si>
+  <si>
+    <t>The Scuderie del Quirinale (meaning The Stables of Quirinale in Italian) is an exhibition gallery in Rome close to The Quirinale Palace, the official residence of the President of the Italian Republic._x000D_
+_x000D_
+The venue was opened in 1999 after its building was renovated after a design by architect Gae Aulenti, and since then it hosts prominent art exhibitions._x000D_
+_x000D_
+Above: the entrance of the Scuderie del Quirinale exhibition gallery in Rome; photo Boldray (CC BY 2.0)._x000D_
+_x000D_
+Building and site_x000D_
+The Scuderie Palace, overlooking an extraordinary urban area, was built in the 18th century on the remains of the Roman Temple of Serapis, still partially visible._x000D_
+The palace presents many floor levels: the reception area and all shared services for the public, including a café, a shop, and a library, are housed in the basement and on the ground floor while the temporary exhibition galleries are located on the first and second floors._x000D_
+_x000D_
+What to see at the Scuderie del Quirinale_x000D_
+The collaboration with prominent international cultural institutions produced exhibitions of the highest quality, such as “Masterpieces from the Guggenheim”, “Sandro Botticelli, painter of the Divine Comedy”, Renaissance. Masterpieces from Italian museums”, “Rembrand. Paintings, engravings, and influences on Italian art of the 17th and 18th century”, “Metaphysics” and “From Giotto to Malevich”. The intense exhibition activity is devoted to the dissemination of the various forms of art: from the Italian classic and modern art masters to the relationships between Italian and international arts and the work of the contemporary art protagonists.</t>
+  </si>
+  <si>
+    <t>https://www.inexhibit.com/wp-content/webp-express/webp-images/uploads/2014/04/Scuderie-del-Quirinale-Roma-2-870x580.jpg.webp</t>
+  </si>
+  <si>
+    <t>The National Roman Museum is located in four different buildings; the Baths of Diocletain, the Palazzo Altemps, the Crypta Balbi and lastly, the Palazzo Massimo. This last palace features one of the best archaeological and classical art collections in the world._x000D_
+_x000D_
+The Palazzo Massimo is also called Palazzo Massimo alle Terme due to its close proximity to the Baths of Diocletain. The villa is a superb Neo-Renaissance style palace, erected between 1883 and 1887. It was used as a Jesuit college until 1960 and in 1981 it was transformed into part of the National Roman Museum._x000D_
+_x000D_
+Exhibitions_x000D_
+The various exhibitions of the Palazzo Massimo alle Terme are divided into different themes and organized chronologically throughout the four floors of the museum. The basement houses a collection of jewels, grave ornaments and Roman coins from different periods. This might be considered to be the least interesting floor of the museum._x000D_
+_x000D_
+The ground and first floor feature famous Greek and Roman sculptures and statues, as well as impressive sarcophagi and high reliefs._x000D_
+_x000D_
+The second floor showcases the best preserved Roman frescoes in the world, which are considered the highlight of the museum. Originally located in Villa of Livia and Villa Farnesina, these colourful frescoes,sometimes covering an entire room, represent different paradisiacal landscapes and domestic life._x000D_
+_x000D_
+On the same floor, visitors will also see an impressive collection of mosaics from the second and fourth century AD.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/p/AF1QipOmmdBDvhP4JQt7yIZdMwGWXA8Mh2aPjQcxpbb9=s1360-w1360-h1020</t>
+  </si>
+  <si>
+    <t>The idea of opening a museum dedicated to Leonardo da Vinci was born in 1919, on the occasion of the celebrations for the fourth centenary of his death, but it opened to the public only in 1953 thanks to the gesture of IBM, which donated a series of models reconstructed on the basis of Leonardo's drawings. Time has passed since then and today the museum itinerary is arranged over several locations: the first rooms are set up in the Palazzina Uzielli while the remaining exhibition sections are housed in the medieval Castello dei Conti Guidi, the historic seat of the museum. The itinerary also includes the "Leonardo and Painting" section at Villa del Ferrale and Leonardo's birthplace in Anchiano.[1][2]_x000D_
+_x000D_
+_x000D_
+Leonardo's self-propelled cart_x000D_
+The museum is accessed from the Piazza dei Guidi. The Palazzina Uzielli hosts the sections "Construction machinery", "Textile manufacturing machines", "Mechanical clocks" and "Leonardo and Anatomy". At the Palazzina there are also spaces dedicated to temporary exhibitions and a large room for educational paths.[1]_x000D_
+_x000D_
+_x000D_
+Modern models of Leonardo's aerial screw_x000D_
+The Castello dei Conti Guidi houses the sections: "War machines", "Bridges", "Studies on flight", "Mechanisms and tools", "The bicycle and the self-propelled chariot", "The waters", "The optics and perspective" and "The geometric solids".[1]_x000D_
+_x000D_
+The Villa del Ferrale hosts a section on Leonardo's life as a painter, with reproductions of his paintings and drawings, made in high definition and life-size. The reproductions alternate with didactic installations and explanatory videos.[1]_x000D_
+_x000D_
+The visit ends with Leonardo's birthplace, where a life-size hologram tells his personal life. The idea of opening a museum dedicated to Leonardo da Vinci was born in 1919, on the occasion of the celebrations for the fourth centenary of his death, but it opened to the public only in 1953 thanks to the gesture of IBM, which donated a series of models reconstructed on the basis of Leonardo's drawings. Time has passed since then and today the museum itinerary is arranged over several locations: the first rooms are set up in the Palazzina Uzielli while the remaining exhibition sections are housed in the medieval Castello dei Conti Guidi, the historic seat of the museum. The itinerary also includes the "Leonardo and Painting" section at Villa del Ferrale and Leonardo's birthplace in Anchiano.[1][2]_x000D_
+_x000D_
+_x000D_
+Leonardo's self-propelled cart_x000D_
+The museum is accessed from the Piazza dei Guidi. The Palazzina Uzielli hosts the sections "Construction machinery", "Textile manufacturing machines", "Mechanical clocks" and "Leonardo and Anatomy". At the Palazzina there are also spaces dedicated to temporary exhibitions and a large room for educational paths.[1]_x000D_
+_x000D_
+_x000D_
+Modern models of Leonardo's aerial screw_x000D_
+The Castello dei Conti Guidi houses the sections: "War machines", "Bridges", "Studies on flight", "Mechanisms and tools", "The bicycle and the self-propelled chariot", "The waters", "The optics and perspective" and "The geometric solids".[1]_x000D_
+_x000D_
+The Villa del Ferrale hosts a section on Leonardo's life as a painter, with reproductions of his paintings and drawings, made in high definition and life-size. The reproductions alternate with didactic installations and explanatory videos.[1]_x000D_
+_x000D_
+The visit ends with Leonardo's birthplace, where a life-size hologram tells his personal life.[1]</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f4/Vinci%2C_castello_dei_conti_guidi_01.JPG/375px-Vinci%2C_castello_dei_conti_guidi_01.JPG</t>
+  </si>
+  <si>
+    <t>The National Museum has its setting in one of the oldest buildings in Florence that dates back to 1255. Initially the headquarters of the Capitano del Popolo (Captain of the People) and later of the Podestà, the palace became, in the sixteenth century, the residence of the Bargello that is of the head of the police (from which the palace takes its name) and was used as prison during the whole 18th century. Its walls witnessed important episodes of civic history. It was the meeting place of the Council of the Hundred in which Dante took part. It wituessed sieges, fires, executions, the most famous perhaps being that of Baroncelli, involved in the Pazzi plot against the Medici, which Leonardo also witnessed. During the 14th and 15th century, the palace was subjected to a series of alterations and additions, still preserving its harmonious severity, best seen in the beautiful courtyard, the balcony and the large hall on the first floor._x000D_
+_x000D_
+The building's use as National Museum began in the mid-19th century. Today it is the setting for works of sculpture, mainly from the grand ducal colleotions, and for many examples of "minor" Gothic decorative arts._x000D_
+_x000D_
+The large 14th century hall on the first floor displays some works by Donatello (1386-1466) including the early marble David, the St. George moved to this location from the niche in Orsammichele, the more mature and ambiguous bronze David, the Atys. and the Marzocco, originally installed on the battlements of Palazzo Vecchio. The works of the master are surrounded by the most delicate works of his pupils Desiderio da Settignano (c. 1430-1464) and Antonio Rossellino (c. 1427-1479). The collection also includes the two panels entered by Lorenzo Ghiberti and Filippo Brunelleschi for the Baptistery door competition of 1401. The Renaissance repertoire comprises the glazed terracottas by Luca della Robbia (c. 1400 - 1482) that include a very extraordinary group of Madonna with Child._x000D_
+_x000D_
+The rooms on the ground floor exhibit Tuscan 16th century works, focusing in particular on four masterpieces by Michelangelo (1475-1564): Bacchus, the relief representing a Madonna with Child, Brutus and David-Apollo._x000D_
+The assortment is then followed by works of Andrea Sansovino (14601529), Jacopo Sansovino (1486-1570), Baccio Bandinelli (1488- 1560), Bartolomeo Ammannati (1511-1592), Benvenuto Cellini (the model of Perseus and the small bronze sculptures were moved to this location from the Loggia dell'Orcagna), down to Giambologna (1529-1608) with his admirable Mercury._x000D_
+The bronze animals that were originally placed in the grotto of the Medici villa of Castello are now displayed on the staircases._x000D_
+_x000D_
+The museum stores however many other treasures: fine works of art enriched by the Carrand, Ressman and Franchetti collections comprising decorative or "minor" arts are distributed among the several rooms of the Palace, both on the first and second floor. From ivories that include several Roman and Byzantine examples, down to medieval glazes and Limoges porcelain from German and French gold works, Renaissance jewels down to Islamic examples of damascened bronze; from grand ducal collections down to Venetian glass._x000D_
+The museum displays several treasures including very unique panel pieces and wooden sculptures. Of note are also the majolicas, arms and small bronze statues._x000D_
+_x000D_
+Two rooms on the second floor are dedicated to the glazed terracottas created by Andrea and Giovanni Della Robbia, besides displaying the bronze David and the Lady with Posy by Verrocchio in the room named after the artist, which displays also an extraordinary collection of busts of Florentine personalities made by some of the most important 15th century artists. One of the most important sculptures is the portrait of Costanza Buonarelli by Gian Lorenzo Bernini. It is also worth visiting the very lavish collection of medals belonging to the Medici family.</t>
+  </si>
+  <si>
+    <t>http://www.museumsinflorence.com/foto/bargello/thumbnails/brut.jpg</t>
+  </si>
+  <si>
+    <t>The Galleria dell'Accademia di Firenze, or "Gallery of the Academy of Florence", is an art museum in Florence, Italy. It is best known as the home of Michelangelo's sculpture David. It also has other sculptures by Michelangelo and a large collection of paintings by Florentine artists, mostly from the period 1300–1600 (the Trecento to the Late Renaissance). It is smaller and more specialized than the Uffizi, the main art museum in Florence. It adjoins the Accademia di Belle Arti or academy of fine arts of Florence, but despite the name has no other connection with it._x000D_
+_x000D_
+In 2016, it had 1.46 million visitors, making it the second-most-visited art museum in Italy, after the Uffizi (2.02 million). The Galleria dell'Accademia was founded in 1784 by Pietro Leopoldo, Grand Duke of Tuscany._x000D_
+_x000D_
+In 2001 the "Museo degli strumenti musicali" collection opened. It includes musical instruments made by Stradivarius, Niccolò Amati and Bartolomeo Cristofori which were acquired by the Florence Conservatory.The Galleria dell'Accademia has housed the original David by Michelangelo since 1873.[2] The sculpture was allegedly brought to the Accademia for reasons of conservation, although other factors were involved in its move from its previous outdoor location on Piazza della Signoria. The original intention was to create a "Michelangelo museum", with original sculptures and drawings, to celebrate the fourth centenary of the artist's birth. Today, the gallery's small collection of Michelangelo's work includes his four unfinished Prisoners, intended for the tomb of Pope Julius II, and a statue of Saint Matthew, also unfinished. In 1939, these were joined by the Palestrina Pietà, discovered in the Barberini chapel in Palestrina, though experts now consider its attribution to Michelangelo to be dubious._x000D_
+_x000D_
+Other works on display are Florentine paintings from the 13th and 16th centuries, including works by Paolo Uccello, Domenico Ghirlandaio, Sandro Botticelli and Andrea del Sarto; and, from the High Renaissance, Giambologna's original full-size plaster modello for the Rape of the Sabine Women. As well as a number of Florentine Gothic paintings, the gallery houses the collection of Russian icons assembled by the Grand Dukes of the House of Lorraine, of which Leopoldo was one.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/81/Galleria_dell%27Accademia_Florenz_David_Michelangelo.jpg/330px-Galleria_dell%27Accademia_Florenz_David_Michelangelo.jpg</t>
+  </si>
+  <si>
+    <t>dekoratif sanat…</t>
+  </si>
+  <si>
+    <t>sanatçılar hakkında (i)+</t>
+  </si>
+  <si>
+    <t>akım hakkında (o)+</t>
+  </si>
+  <si>
+    <t>hakkında (kalıtım)+</t>
+  </si>
+  <si>
+    <t>akımlar +</t>
+  </si>
+  <si>
+    <t>malzeme +</t>
+  </si>
+  <si>
+    <t>sanatçılar +</t>
+  </si>
+  <si>
+    <t>sehirler +</t>
+  </si>
+  <si>
+    <t>semtler +</t>
+  </si>
+  <si>
+    <t>ülke +</t>
+  </si>
+  <si>
+    <t>müzeler hakkinda (m) +</t>
+  </si>
+  <si>
+    <t>müzeler +</t>
+  </si>
+  <si>
+    <t>türetilmiş tablolar</t>
+  </si>
+  <si>
+    <t>country_id</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>city_id</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>district_id</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>adress_id (türetilmiş alan)</t>
+  </si>
+  <si>
+    <t>tempp şeması içinde newtable +</t>
+  </si>
+  <si>
+    <t>yesil tablolar veri tabanına döküldü +</t>
+  </si>
+  <si>
+    <t>sol kısım bitti +</t>
+  </si>
+  <si>
+    <t>turkiye</t>
+  </si>
+  <si>
+    <t>istanbul</t>
+  </si>
+  <si>
+    <t>beyoglu</t>
+  </si>
+  <si>
+    <t>besiktas</t>
+  </si>
+  <si>
+    <t>bursa</t>
+  </si>
+  <si>
+    <t>osmangazi</t>
+  </si>
+  <si>
+    <t>eskişehir</t>
+  </si>
+  <si>
+    <t>odunpazarı</t>
+  </si>
+  <si>
+    <t>konya</t>
+  </si>
+  <si>
+    <t>karatay</t>
+  </si>
+  <si>
+    <t>italy</t>
+  </si>
+  <si>
+    <t>florance</t>
+  </si>
+  <si>
+    <t>Vinci</t>
+  </si>
+  <si>
+    <t>Largo di Villa Peretti</t>
+  </si>
+  <si>
+    <t>milan</t>
+  </si>
+  <si>
+    <t>Alessandro Manzoni</t>
+  </si>
+  <si>
+    <t>Tortona</t>
+  </si>
+  <si>
+    <t>Santa Croce</t>
+  </si>
+  <si>
+    <t>Calle Ca' d'Oro</t>
+  </si>
+  <si>
+    <t>Ricasoli</t>
+  </si>
+  <si>
+    <t>Ventiquattro Maggio</t>
+  </si>
+  <si>
+    <t>Proconsolo</t>
+  </si>
+  <si>
+    <t>czechia</t>
+  </si>
+  <si>
+    <t>prague</t>
+  </si>
+  <si>
+    <t>Staré Město</t>
+  </si>
+  <si>
+    <t>netherlands</t>
+  </si>
+  <si>
+    <t>rotterdam</t>
+  </si>
+  <si>
+    <t>Van Zandvlietplein</t>
+  </si>
+  <si>
+    <t>id pk fk</t>
+  </si>
+  <si>
+    <t>hakkında fk</t>
+  </si>
+  <si>
+    <t>dünya harikaları ve antik kentler uygulamadan silindi</t>
+  </si>
+  <si>
+    <t>sql fonksiyonları burada kullanılanilir. -update- vtys hafta dokuz-on</t>
+  </si>
+  <si>
+    <t>AddMuseum.cs sayfasındaki uzun adres sorgusu sql'e gömüelebilir.</t>
+  </si>
+  <si>
+    <t>Haftanın eserleri tablosunda, göülü fonksiyon kullanılabilir, callout('günlük tablolar da kullanılabilir')</t>
+  </si>
+  <si>
+    <t>trigger ??</t>
+  </si>
+  <si>
+    <t>iş kuralı:</t>
+  </si>
+  <si>
+    <t>Uygulama arayüzünde öz sanat sekmesi olsun ve kullanıcılar buraya icra ettiği eserin fotoğrafını çekip eklesin beraberinde ilgili alanları da kendisi girsin. ----- ekleme işleminin ardından uygulama içerisinden eklenen satır-varlık üzerinde değişiklikler yapılsın -update- ----- dilenirse silinsin. --DELETE--, ---TRIGER--- kullanıcı başı maksimum 5 sanat eseri uygulamaya eklenebilir olsun. 5'i aşan yüklemeler başına kullanıcılara premiuma geçin uyarısı gösterilsin.</t>
+  </si>
+  <si>
+    <t>kullanıcının müdahalesinde avatar tablosu bulunmaktadır avatar tablosuna görsel eklenmeli mi ?? Kullanıcı görselleri nerede depolanmalı ?? Nereden çağrılmalı ?? Git upload ?? Drive upload ??</t>
+  </si>
+  <si>
+    <t>eserler (kalıtım) +</t>
+  </si>
+  <si>
+    <t>tablolar (p) +</t>
+  </si>
+  <si>
+    <t>mimari ® +</t>
+  </si>
+  <si>
+    <t>heykeller (s) +</t>
+  </si>
+  <si>
+    <t>dekoratif sanat (d) +</t>
+  </si>
+  <si>
+    <t>eserler yapıldı Kısmı Yapıldı +</t>
+  </si>
+  <si>
+    <t>eserler hakkında (a) +</t>
+  </si>
+  <si>
+    <t>opsiyonel/yapıldı</t>
+  </si>
+  <si>
+    <t>eser türleri hakkında (t) +</t>
+  </si>
+  <si>
+    <t>hakkında kısmı bitti +</t>
+  </si>
+  <si>
+    <t>tetikleyiciler</t>
+  </si>
+  <si>
+    <t>kullanıcı başı maksimum yükleme yapma adedine ulaşıldığında bir sonraki yüklemeleri yapamasın uyarı atsın</t>
+  </si>
+  <si>
+    <t>fonksiyonlar</t>
+  </si>
+  <si>
+    <t>uygulamaya girişi kontol eden fonksiyonu burada yazalım. Flutter arayüzünden çağrımını yaparız.</t>
+  </si>
+  <si>
+    <t>uygulamaya giriş yaptıktam sonra giriş yapılan tarih ve uygulamadan çıkış yapılan tarih veri tabanında raporlanmak üzere saklansın.</t>
+  </si>
+  <si>
+    <t>haftanın eserleri tablosu rassal olarak doldurulsun.</t>
+  </si>
+  <si>
+    <t>veri tabanına eser yüklemek için bir fonksiyon yazılsın ve veri yükleneceği zaman bu fonksiyon çağrılsın.</t>
+  </si>
+  <si>
+    <t>user data collect</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>kullanıcı uygulamadan çıkınca çıkış tarihi kayıt edilsin</t>
+  </si>
+  <si>
+    <t>kullanıcının beğendiği içeriklere göre kullanıcı profili tahmin edilsin.</t>
+  </si>
+  <si>
+    <t>veri tabanına kullanıcı nasıl uygulama yükleyecek amk *?</t>
+  </si>
+  <si>
+    <t>online_status</t>
+  </si>
+  <si>
+    <t>bu değer değişince trigger çağrılsın</t>
+  </si>
+  <si>
+    <t>last_login</t>
+  </si>
+  <si>
+    <t>last_logout</t>
+  </si>
+  <si>
+    <t>total_time_consuming</t>
+  </si>
+  <si>
+    <t>user_likes (json)</t>
+  </si>
+  <si>
+    <t>🤙🏽🤙🏽🤙🏽🤙🏽🤙🏽🤙🏽</t>
+  </si>
+  <si>
+    <t>kullanıcı gönderi beğendiğinde beğendiğinde total_liked_art değeri bir artsın.</t>
+  </si>
+  <si>
+    <t>total_liked_art (count)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,8 +1187,65 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,18 +1292,33 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -871,8 +1411,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -882,9 +1452,14 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -903,6 +1478,47 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="10"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="10" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -912,28 +1528,31 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -945,8 +1564,29 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="10" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -957,49 +1597,46 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="13" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="14" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="14" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="15">
     <cellStyle name="%20 - Vurgu2" xfId="6" builtinId="34"/>
+    <cellStyle name="%20 - Vurgu5" xfId="14" builtinId="46"/>
     <cellStyle name="%40 - Vurgu3" xfId="7" builtinId="39"/>
-    <cellStyle name="%40 - Vurgu4" xfId="9" builtinId="43"/>
+    <cellStyle name="%40 - Vurgu4" xfId="8" builtinId="43"/>
     <cellStyle name="%60 - Vurgu3" xfId="4" builtinId="40"/>
-    <cellStyle name="%60 - Vurgu4" xfId="8" builtinId="44"/>
+    <cellStyle name="Çıkış" xfId="10" builtinId="21"/>
+    <cellStyle name="Giriş" xfId="9" builtinId="20"/>
     <cellStyle name="Hesaplama" xfId="5" builtinId="22"/>
     <cellStyle name="İyi" xfId="1" builtinId="26"/>
     <cellStyle name="Kötü" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Not" xfId="12" builtinId="10"/>
     <cellStyle name="Nötr" xfId="3" builtinId="28"/>
+    <cellStyle name="Uyarı Metni" xfId="11" builtinId="11"/>
+    <cellStyle name="Vurgu5" xfId="13" builtinId="45"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1311,27 +1948,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5D88BB-5181-4A0D-8FA8-DF70D1741753}">
-  <dimension ref="A1:T116"/>
+  <dimension ref="A1:AE145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I147" sqref="I147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
     <col min="7" max="7" width="22.21875" customWidth="1"/>
     <col min="8" max="8" width="17.77734375" customWidth="1"/>
     <col min="9" max="9" width="25.6640625" customWidth="1"/>
     <col min="10" max="10" width="18.21875" customWidth="1"/>
     <col min="11" max="11" width="17.109375" customWidth="1"/>
     <col min="12" max="14" width="13.33203125" customWidth="1"/>
-    <col min="15" max="15" width="9.88671875" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" customWidth="1"/>
     <col min="16" max="16" width="16.33203125" customWidth="1"/>
     <col min="17" max="17" width="15.77734375" customWidth="1"/>
     <col min="18" max="18" width="15.5546875" customWidth="1"/>
@@ -1340,57 +1977,59 @@
     <col min="21" max="21" width="21.77734375" customWidth="1"/>
     <col min="22" max="22" width="18.21875" customWidth="1"/>
     <col min="23" max="23" width="14.109375" customWidth="1"/>
-    <col min="24" max="24" width="18.6640625" customWidth="1"/>
+    <col min="24" max="24" width="31.44140625" customWidth="1"/>
+    <col min="29" max="29" width="28" customWidth="1"/>
+    <col min="31" max="31" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="H1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="L1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="P1" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="18"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="H1" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="L1" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="P1" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q1" s="28"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>2</v>
@@ -1399,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>1</v>
@@ -1408,17 +2047,17 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1439,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
@@ -1448,23 +2087,37 @@
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="S3" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="X3" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AC3" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+    </row>
+    <row r="4" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -1485,7 +2138,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L4" s="2">
         <v>2</v>
@@ -1494,23 +2147,30 @@
         <v>2</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P4" s="2">
         <v>2</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="X4" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC4" s="51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -1531,7 +2191,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L5" s="2">
         <v>3</v>
@@ -1540,23 +2200,27 @@
         <v>3</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P5" s="2">
         <v>3</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="X5" s="52"/>
+      <c r="AC5" s="51"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
@@ -1577,7 +2241,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L6" s="2">
         <v>4</v>
@@ -1586,23 +2250,25 @@
         <v>4</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P6" s="2">
         <v>4</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X6" s="52"/>
+      <c r="AC6" s="51"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2">
         <v>5</v>
@@ -1623,7 +2289,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" s="2">
         <v>5</v>
@@ -1632,23 +2298,23 @@
         <v>5</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P7" s="2">
         <v>5</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
@@ -1669,7 +2335,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L8" s="2">
         <v>6</v>
@@ -1678,122 +2344,161 @@
         <v>6</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P8" s="2">
         <v>6</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="X8" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC8" s="51" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="X9" s="51"/>
+      <c r="AC9" s="51"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:20" ht="21" x14ac:dyDescent="0.4">
+      <c r="X10" s="51"/>
+      <c r="AC10" s="51"/>
+    </row>
+    <row r="11" spans="1:31" ht="11.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="I11" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I11" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="AC11" s="50"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="X12" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC12" s="51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="H18" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="L18" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="29"/>
-      <c r="O18" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="X13" s="51"/>
+      <c r="AC13" s="51"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="X14" s="51"/>
+      <c r="AC14" s="51"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="X16" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC16" s="51" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="X17" s="51"/>
+      <c r="AC17" s="51"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="H18" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="L18" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" s="16"/>
+      <c r="O18" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="X18" s="51"/>
+      <c r="AC18" s="51"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -1805,30 +2510,30 @@
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L20" s="2">
         <v>1</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
@@ -1840,30 +2545,35 @@
         <v>2</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L21" s="2">
         <v>2</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="X21" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2">
         <v>3</v>
@@ -1875,30 +2585,30 @@
         <v>3</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L22" s="2">
         <v>3</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2">
         <v>4</v>
@@ -1910,30 +2620,30 @@
         <v>4</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L23" s="2">
         <v>4</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" s="2">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2">
         <v>5</v>
@@ -1945,30 +2655,30 @@
         <v>5</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L24" s="2">
         <v>5</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E25" s="2">
         <v>6</v>
@@ -1980,90 +2690,90 @@
         <v>6</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L25" s="2">
         <v>6</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="E32" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="I32" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="M32" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="Q32" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A32" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="E32" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="I32" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="M32" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="Q32" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
@@ -2071,46 +2781,46 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I34" s="1">
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Q34" s="1">
         <v>1</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
@@ -2118,46 +2828,46 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I35" s="1">
         <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M35" s="1">
         <v>2</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Q35" s="1">
         <v>2</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
@@ -2165,46 +2875,46 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I36" s="1">
         <v>3</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M36" s="1">
         <v>3</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Q36" s="1">
         <v>3</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
@@ -2212,46 +2922,46 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E37" s="1">
         <v>4</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I37" s="1">
         <v>4</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M37" s="1">
         <v>4</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Q37" s="1">
         <v>4</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
@@ -2259,46 +2969,46 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E38" s="1">
         <v>5</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I38" s="1">
         <v>5</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M38" s="1">
         <v>5</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Q38" s="1">
         <v>5</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
@@ -2306,41 +3016,41 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="E40" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="I40" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
+      <c r="E40" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="I40" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="E41" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
@@ -2348,10 +3058,10 @@
         <v>2</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
@@ -2360,10 +3070,10 @@
         <v>3</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
@@ -2372,10 +3082,10 @@
         <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
@@ -2384,10 +3094,10 @@
         <v>5</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
@@ -2396,50 +3106,57 @@
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G51" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="H51" s="33"/>
-      <c r="I51" s="32"/>
-      <c r="K51" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="L51" s="36"/>
-      <c r="M51" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N51" s="12"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G51" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="H51" s="30"/>
+      <c r="I51" s="31"/>
+      <c r="K51" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" s="40"/>
+      <c r="M51" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="N51" s="17"/>
+      <c r="Q51" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G53" s="2">
         <v>1</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I53" s="1"/>
       <c r="K53" s="2">
@@ -2448,19 +3165,26 @@
       <c r="L53" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B54" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
+      <c r="Q53" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B54" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
       <c r="G54" s="2">
         <v>2</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I54" s="1"/>
       <c r="K54" s="2">
@@ -2470,16 +3194,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
       <c r="G55" s="2">
         <v>3</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I55" s="1"/>
       <c r="K55" s="2">
@@ -2489,12 +3213,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G56" s="2">
         <v>4</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I56" s="1"/>
       <c r="K56" s="2">
@@ -2504,12 +3228,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G57" s="2">
         <v>5</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I57" s="1"/>
       <c r="K57" s="2">
@@ -2519,12 +3243,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G58" s="2">
         <v>6</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I58" s="1"/>
       <c r="K58" s="2">
@@ -2534,69 +3258,69 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G59" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H59" s="12"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G59" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H59" s="17"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K60" s="4"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="I63" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A63" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="I63" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -2604,37 +3328,37 @@
         <v>1</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="I65" s="2">
         <v>1</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -2642,37 +3366,37 @@
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I66" s="2">
         <v>2</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -2680,37 +3404,37 @@
         <v>3</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I67" s="2">
         <v>3</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -2718,37 +3442,37 @@
         <v>4</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I68" s="2">
         <v>4</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -2756,37 +3480,37 @@
         <v>5</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I69" s="2">
         <v>5</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -2794,93 +3518,93 @@
         <v>6</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I70" s="2">
         <v>6</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N70" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="I74" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
+      <c r="A74" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="I74" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -2888,37 +3612,37 @@
         <v>1</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="I76" s="2">
         <v>1</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -2926,37 +3650,37 @@
         <v>2</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I77" s="2">
         <v>2</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N77" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -2964,37 +3688,37 @@
         <v>3</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I78" s="2">
         <v>3</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N78" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -3002,37 +3726,37 @@
         <v>4</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I79" s="2">
         <v>4</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N79" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -3040,408 +3764,414 @@
         <v>5</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I80" s="2">
         <v>5</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N80" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>6</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I81" s="2">
         <v>6</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N81" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N81" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="I85" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C86" s="1" t="s">
+    <row r="85" spans="1:19" ht="21" x14ac:dyDescent="0.4">
+      <c r="A85" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" s="45"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="45"/>
+      <c r="I85" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="J85" s="45"/>
+      <c r="K85" s="45"/>
+      <c r="L85" s="45"/>
+      <c r="M85" s="45"/>
+      <c r="N85" s="45"/>
+      <c r="P85" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="L86" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M86" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A87" s="10">
+        <v>1</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J86" s="1" t="s">
+      <c r="C87" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="9">
+        <v>1</v>
+      </c>
+      <c r="E87" s="9">
+        <v>1</v>
+      </c>
+      <c r="F87" s="9">
+        <v>1</v>
+      </c>
+      <c r="I87" s="10">
+        <v>1</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K87" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K86" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>1</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="L87" s="9">
+        <v>1</v>
+      </c>
+      <c r="M87" s="9">
+        <v>1</v>
+      </c>
+      <c r="N87" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A88" s="10">
+        <v>2</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D87" s="1">
-        <v>1</v>
-      </c>
-      <c r="E87" s="1">
-        <v>1</v>
-      </c>
-      <c r="F87" s="1">
-        <v>1</v>
-      </c>
-      <c r="I87" s="2">
-        <v>1</v>
-      </c>
-      <c r="J87" s="1" t="s">
+      <c r="C88" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="9">
+        <v>2</v>
+      </c>
+      <c r="E88" s="9">
+        <v>2</v>
+      </c>
+      <c r="F88" s="9">
+        <v>2</v>
+      </c>
+      <c r="I88" s="10">
+        <v>2</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K88" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K87" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L87" s="1">
-        <v>1</v>
-      </c>
-      <c r="M87" s="1">
-        <v>1</v>
-      </c>
-      <c r="N87" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="L88" s="9">
         <v>2</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="M88" s="9">
+        <v>2</v>
+      </c>
+      <c r="N88" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A89" s="10">
+        <v>3</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D88" s="1">
-        <v>2</v>
-      </c>
-      <c r="E88" s="1">
-        <v>2</v>
-      </c>
-      <c r="F88" s="1">
-        <v>2</v>
-      </c>
-      <c r="I88" s="2">
-        <v>2</v>
-      </c>
-      <c r="J88" s="1" t="s">
+      <c r="C89" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="9">
+        <v>3</v>
+      </c>
+      <c r="E89" s="9">
+        <v>3</v>
+      </c>
+      <c r="F89" s="9">
+        <v>3</v>
+      </c>
+      <c r="I89" s="10">
+        <v>3</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K89" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K88" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L88" s="1">
-        <v>2</v>
-      </c>
-      <c r="M88" s="1">
-        <v>2</v>
-      </c>
-      <c r="N88" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="L89" s="9">
         <v>3</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="M89" s="9">
+        <v>3</v>
+      </c>
+      <c r="N89" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A90" s="10">
+        <v>4</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D89" s="1">
-        <v>3</v>
-      </c>
-      <c r="E89" s="1">
-        <v>3</v>
-      </c>
-      <c r="F89" s="1">
-        <v>3</v>
-      </c>
-      <c r="I89" s="2">
-        <v>3</v>
-      </c>
-      <c r="J89" s="1" t="s">
+      <c r="C90" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="9">
+        <v>4</v>
+      </c>
+      <c r="E90" s="9">
+        <v>4</v>
+      </c>
+      <c r="F90" s="9">
+        <v>4</v>
+      </c>
+      <c r="I90" s="10">
+        <v>4</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K90" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K89" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L89" s="1">
-        <v>3</v>
-      </c>
-      <c r="M89" s="1">
-        <v>3</v>
-      </c>
-      <c r="N89" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="L90" s="9">
         <v>4</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="M90" s="9">
+        <v>4</v>
+      </c>
+      <c r="N90" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A91" s="10">
+        <v>5</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="1">
-        <v>4</v>
-      </c>
-      <c r="E90" s="1">
-        <v>4</v>
-      </c>
-      <c r="F90" s="1">
-        <v>4</v>
-      </c>
-      <c r="I90" s="2">
-        <v>4</v>
-      </c>
-      <c r="J90" s="1" t="s">
+      <c r="C91" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="9">
+        <v>5</v>
+      </c>
+      <c r="E91" s="9">
+        <v>5</v>
+      </c>
+      <c r="F91" s="9">
+        <v>5</v>
+      </c>
+      <c r="I91" s="10">
+        <v>5</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K91" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K90" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L90" s="1">
-        <v>4</v>
-      </c>
-      <c r="M90" s="1">
-        <v>4</v>
-      </c>
-      <c r="N90" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="L91" s="9">
         <v>5</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="M91" s="9">
+        <v>5</v>
+      </c>
+      <c r="N91" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A92" s="10">
+        <v>6</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D91" s="1">
-        <v>5</v>
-      </c>
-      <c r="E91" s="1">
-        <v>5</v>
-      </c>
-      <c r="F91" s="1">
-        <v>5</v>
-      </c>
-      <c r="I91" s="2">
-        <v>5</v>
-      </c>
-      <c r="J91" s="1" t="s">
+      <c r="C92" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="9">
+        <v>6</v>
+      </c>
+      <c r="E92" s="9">
+        <v>6</v>
+      </c>
+      <c r="F92" s="9">
+        <v>6</v>
+      </c>
+      <c r="I92" s="10">
+        <v>6</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K92" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K91" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L91" s="1">
-        <v>5</v>
-      </c>
-      <c r="M91" s="1">
-        <v>5</v>
-      </c>
-      <c r="N91" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="L92" s="9">
         <v>6</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D92" s="1">
+      <c r="M92" s="9">
         <v>6</v>
       </c>
-      <c r="E92" s="1">
+      <c r="N92" s="9">
         <v>6</v>
       </c>
-      <c r="F92" s="1">
-        <v>6</v>
-      </c>
-      <c r="I92" s="2">
-        <v>6</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L92" s="1">
-        <v>6</v>
-      </c>
-      <c r="M92" s="1">
-        <v>6</v>
-      </c>
-      <c r="N92" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="J94" s="3"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="J96" s="3"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
-      <c r="B97" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="25"/>
-      <c r="I97" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="J97" s="27"/>
-      <c r="L97" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="M97" s="15"/>
-      <c r="N97" s="15"/>
-      <c r="O97" s="15"/>
+      <c r="B97" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="47"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="47"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="48"/>
+      <c r="I97" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J97" s="19"/>
+      <c r="L97" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="M97" s="26"/>
+      <c r="N97" s="26"/>
+      <c r="O97" s="26"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
@@ -3449,30 +4179,30 @@
         <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L98" s="15"/>
-      <c r="M98" s="15"/>
-      <c r="N98" s="15"/>
-      <c r="O98" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="L98" s="26"/>
+      <c r="M98" s="26"/>
+      <c r="N98" s="26"/>
+      <c r="O98" s="26"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
@@ -3480,10 +4210,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E99" s="1">
         <v>90</v>
@@ -3498,8 +4228,13 @@
         <v>1</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="L99" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="M99" s="20"/>
+      <c r="N99" s="20"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
@@ -3507,10 +4242,10 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E100" s="1">
         <v>90</v>
@@ -3525,8 +4260,11 @@
         <v>2</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="L100" s="20"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="20"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
@@ -3534,10 +4272,10 @@
         <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E101" s="1">
         <v>90</v>
@@ -3552,7 +4290,7 @@
         <v>3</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
@@ -3561,10 +4299,10 @@
         <v>4</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E102" s="1">
         <v>90</v>
@@ -3579,7 +4317,7 @@
         <v>4</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
@@ -3588,10 +4326,10 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E103" s="1">
         <v>90</v>
@@ -3606,7 +4344,7 @@
         <v>5</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
@@ -3615,10 +4353,10 @@
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E104" s="1">
         <v>90</v>
@@ -3633,7 +4371,7 @@
         <v>6</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -3641,8 +4379,8 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
@@ -3651,212 +4389,1117 @@
       <c r="A108" s="3"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B109" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="10"/>
-      <c r="K109" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="L109" s="15"/>
-      <c r="M109" s="15"/>
-      <c r="N109" s="15"/>
+      <c r="B109" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+      <c r="I109" s="25"/>
+      <c r="K109" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L109" s="26"/>
+      <c r="M109" s="26"/>
+      <c r="N109" s="26"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B110" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K110" s="15"/>
-      <c r="L110" s="15"/>
-      <c r="M110" s="15"/>
-      <c r="N110" s="15"/>
+        <v>46</v>
+      </c>
+      <c r="K110" s="26"/>
+      <c r="L110" s="26"/>
+      <c r="M110" s="26"/>
+      <c r="N110" s="26"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B111" s="2">
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E111" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E111" s="1"/>
+      <c r="F111" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K111" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="2">
         <v>2</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D112" s="1"/>
-      <c r="E112" s="1" t="s">
+      <c r="E112" s="1"/>
+      <c r="F112" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K112" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="L112" s="13"/>
+      <c r="M112" s="13"/>
+      <c r="N112" s="13"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="2">
         <v>3</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D113" s="1"/>
-      <c r="E113" s="1" t="s">
+      <c r="E113" s="1"/>
+      <c r="F113" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K113" s="13"/>
+      <c r="L113" s="13"/>
+      <c r="M113" s="13"/>
+      <c r="N113" s="13"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="2">
         <v>4</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D114" s="1"/>
-      <c r="E114" s="1" t="s">
+      <c r="E114" s="1"/>
+      <c r="F114" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K114" s="13"/>
+      <c r="L114" s="13"/>
+      <c r="M114" s="13"/>
+      <c r="N114" s="13"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="2">
         <v>5</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D115" s="1"/>
-      <c r="E115" s="1" t="s">
+      <c r="E115" s="1"/>
+      <c r="F115" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K115" s="13"/>
+      <c r="L115" s="13"/>
+      <c r="M115" s="13"/>
+      <c r="N115" s="13"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="2">
         <v>6</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D116" s="1"/>
-      <c r="E116" s="1" t="s">
+      <c r="E116" s="1"/>
+      <c r="F116" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="13"/>
+      <c r="M116" s="13"/>
+      <c r="N116" s="13"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K117" s="13"/>
+      <c r="L117" s="13"/>
+      <c r="M117" s="13"/>
+      <c r="N117" s="13"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K118" s="13"/>
+      <c r="L118" s="13"/>
+      <c r="M118" s="13"/>
+      <c r="N118" s="13"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>151</v>
+      </c>
+      <c r="K121" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="L121" s="14"/>
+      <c r="M121" s="14"/>
+      <c r="N121" s="14"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B122" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22"/>
+      <c r="K122" s="14"/>
+      <c r="L122" s="14"/>
+      <c r="M122" s="14"/>
+      <c r="N122" s="14"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B123" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K123" s="14"/>
+      <c r="L123" s="14"/>
+      <c r="M123" s="14"/>
+      <c r="N123" s="14"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B124" s="1">
+        <v>1</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H124" s="1">
+        <v>1</v>
+      </c>
+      <c r="K124" s="14"/>
+      <c r="L124" s="14"/>
+      <c r="M124" s="14"/>
+      <c r="N124" s="14"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B125" s="1">
+        <v>2</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H125" s="1">
+        <v>3</v>
+      </c>
+      <c r="K125" s="14"/>
+      <c r="L125" s="14"/>
+      <c r="M125" s="14"/>
+      <c r="N125" s="14"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B126" s="1">
+        <v>3</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E126" s="1">
+        <v>18</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H126" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B127" s="1">
+        <v>4</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E127" s="1">
+        <v>19</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H127" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B128" s="1">
+        <v>5</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E128" s="1">
+        <v>21</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H128" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B129" s="1">
+        <v>6</v>
+      </c>
+      <c r="C129" s="1">
+        <v>4</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E129" s="1">
+        <v>10</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H129" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B130" s="1">
+        <v>7</v>
+      </c>
+      <c r="C130" s="1">
+        <v>4</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E130" s="1">
+        <v>11</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H130" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B131" s="1">
+        <v>8</v>
+      </c>
+      <c r="C131" s="1">
+        <v>4</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E131" s="1">
+        <v>12</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H131" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B132" s="1">
+        <v>9</v>
+      </c>
+      <c r="C132" s="1">
+        <v>4</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E132" s="1">
+        <v>12</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H132" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B133" s="1">
+        <v>10</v>
+      </c>
+      <c r="C133" s="1">
+        <v>4</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E133" s="1">
+        <v>13</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H133" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B134" s="1">
+        <v>11</v>
+      </c>
+      <c r="C134" s="1">
+        <v>4</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E134" s="1">
+        <v>13</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H134" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B135" s="1">
+        <v>12</v>
+      </c>
+      <c r="C135" s="1">
+        <v>4</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E135" s="1">
+        <v>10</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H135" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B136" s="1">
+        <v>13</v>
+      </c>
+      <c r="C136" s="1">
+        <v>4</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E136" s="1">
+        <v>11</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H136" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B137" s="1">
+        <v>14</v>
+      </c>
+      <c r="C137" s="1">
+        <v>4</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E137" s="1">
+        <v>10</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H137" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B138" s="1">
+        <v>15</v>
+      </c>
+      <c r="C138" s="1">
+        <v>5</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E138" s="1">
+        <v>14</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H138" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B139" s="1">
+        <v>16</v>
+      </c>
+      <c r="C139" s="1">
+        <v>7</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E139" s="1">
+        <v>17</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H139" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B143" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="C143" s="56"/>
+      <c r="D143" s="56"/>
+      <c r="E143" s="56"/>
+      <c r="F143" s="56"/>
+      <c r="G143" s="56"/>
+      <c r="H143" s="56"/>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B144" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H144" s="57" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C145" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G145" t="s">
+        <v>228</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="L18:M18"/>
+  <mergeCells count="54">
+    <mergeCell ref="AC12:AC14"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X16:X18"/>
+    <mergeCell ref="AC16:AC18"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AC8:AC10"/>
+    <mergeCell ref="I85:N85"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="I32:K32"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="G59:H59"/>
     <mergeCell ref="I11:K11"/>
+    <mergeCell ref="O18:Q19"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="I74:N74"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="G51:I51"/>
     <mergeCell ref="B54:E55"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="I32:K32"/>
     <mergeCell ref="E32:G32"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="O18:Q19"/>
-    <mergeCell ref="B109:I109"/>
     <mergeCell ref="M51:N51"/>
     <mergeCell ref="I40:K41"/>
     <mergeCell ref="A32:C32"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="K112:N118"/>
+    <mergeCell ref="K121:N125"/>
+    <mergeCell ref="P85:S85"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="L99:N100"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="B122:H122"/>
+    <mergeCell ref="B109:I109"/>
     <mergeCell ref="L97:O98"/>
     <mergeCell ref="K109:N110"/>
-    <mergeCell ref="E40:G40"/>
     <mergeCell ref="I63:N63"/>
-    <mergeCell ref="I74:N74"/>
-    <mergeCell ref="I85:N85"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="I97:J97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E769EE52-5573-43B0-B8BD-73D9D72858C2}">
+  <dimension ref="B9:D48"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="78.77734375" customWidth="1"/>
+    <col min="4" max="4" width="165.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>28</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+    </row>
+    <row r="36" spans="2:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>5</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>6</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>7</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>8</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>9</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <v>10</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <v>11</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
+        <v>12</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="49.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B35:D35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lib/db/dbdesign/dbdesign.xlsx
+++ b/lib/db/dbdesign/dbdesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dosyalar\Flutter\ArtExhibition\art_exhibition_app\lib\db\dbdesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB268C21-C24D-4F16-A5CC-89BAD5C2BCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4A703F-5157-48D1-9A75-31E892F355D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6E9A53E9-D70F-4D45-8C82-F1E37DD5C097}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="235">
   <si>
     <t>id</t>
   </si>
@@ -1087,6 +1087,18 @@
   </si>
   <si>
     <t>total_liked_art (count)</t>
+  </si>
+  <si>
+    <t>yapıldı</t>
+  </si>
+  <si>
+    <t>login fonksiyonu yazıldı</t>
+  </si>
+  <si>
+    <t>nt</t>
+  </si>
+  <si>
+    <t>triggerler veri grişin kontrol etmek için kullanılırlarmış</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1471,7 @@
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1488,7 +1500,98 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="14" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="14" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="13" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="10" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
@@ -1497,13 +1600,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1531,95 +1631,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="11" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="10" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="13" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="14" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="14" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="12" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="%20 - Vurgu2" xfId="6" builtinId="34"/>
@@ -1950,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5D88BB-5181-4A0D-8FA8-DF70D1741753}">
   <dimension ref="A1:AE145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I147" sqref="I147"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1983,28 +1994,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="H1" s="28" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="H1" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="L1" s="28" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="L1" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="P1" s="28" t="s">
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="P1" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="28"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2095,22 +2106,22 @@
       <c r="Q3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="43" t="s">
+      <c r="S3" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="X3" s="49" t="s">
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="X3" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AC3" s="49" t="s">
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AC3" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
     </row>
     <row r="4" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2158,10 +2169,10 @@
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
-      <c r="X4" s="52" t="s">
+      <c r="X4" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="AC4" s="51" t="s">
+      <c r="AC4" s="14" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2208,12 +2219,12 @@
       <c r="Q5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="X5" s="52"/>
-      <c r="AC5" s="51"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="X5" s="18"/>
+      <c r="AC5" s="14"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -2260,8 +2271,8 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="X6" s="52"/>
-      <c r="AC6" s="51"/>
+      <c r="X6" s="18"/>
+      <c r="AC6" s="14"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -2352,16 +2363,19 @@
       <c r="Q8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X8" s="51" t="s">
+      <c r="X8" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="AC8" s="51" t="s">
+      <c r="AC8" s="14" t="s">
         <v>215</v>
       </c>
+      <c r="AE8" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="X9" s="51"/>
-      <c r="AC9" s="51"/>
+      <c r="X9" s="14"/>
+      <c r="AC9" s="14"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
@@ -2369,8 +2383,8 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="X10" s="51"/>
-      <c r="AC10" s="51"/>
+      <c r="X10" s="14"/>
+      <c r="AC10" s="14"/>
     </row>
     <row r="11" spans="1:31" ht="11.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
@@ -2378,12 +2392,12 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="AC11" s="50"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="AC11" s="12"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -2391,10 +2405,10 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="X12" s="51" t="s">
+      <c r="X12" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="AC12" s="51" t="s">
+      <c r="AC12" s="14" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2404,52 +2418,52 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="X13" s="51"/>
-      <c r="AC13" s="51"/>
+      <c r="X13" s="14"/>
+      <c r="AC13" s="14"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="X14" s="51"/>
-      <c r="AC14" s="51"/>
+      <c r="X14" s="14"/>
+      <c r="AC14" s="14"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="X16" s="51" t="s">
+      <c r="X16" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="AC16" s="51" t="s">
+      <c r="AC16" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="X17" s="51"/>
-      <c r="AC17" s="51"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="X17" s="14"/>
+      <c r="AC17" s="14"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="H18" s="16" t="s">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="H18" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="L18" s="16" t="s">
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="L18" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="M18" s="16"/>
-      <c r="O18" s="42" t="s">
+      <c r="M18" s="31"/>
+      <c r="O18" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="X18" s="51"/>
-      <c r="AC18" s="51"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="X18" s="14"/>
+      <c r="AC18" s="14"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -2483,11 +2497,11 @@
       <c r="M19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -2521,8 +2535,14 @@
       <c r="M20" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC20" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -2556,13 +2576,13 @@
       <c r="M21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X21" s="53" t="s">
+      <c r="X21" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -2597,7 +2617,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -2632,7 +2652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -2667,7 +2687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>6</v>
       </c>
@@ -2701,33 +2721,41 @@
       <c r="M25" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
+      <c r="X25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="X27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A32" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="E32" s="34" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="E32" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="I32" s="34" t="s">
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="I32" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="M32" s="34" t="s">
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="M32" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="Q32" s="34" t="s">
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="Q32" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -3016,16 +3044,16 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="I40" s="39" t="s">
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="I40" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
@@ -3038,9 +3066,9 @@
       <c r="G41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E42" s="1">
@@ -3113,26 +3141,26 @@
       <c r="A50" s="3"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="G51" s="29" t="s">
+      <c r="G51" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="H51" s="30"/>
-      <c r="I51" s="31"/>
-      <c r="K51" s="40" t="s">
+      <c r="H51" s="33"/>
+      <c r="I51" s="34"/>
+      <c r="K51" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="L51" s="40"/>
-      <c r="M51" s="38" t="s">
+      <c r="L51" s="43"/>
+      <c r="M51" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="N51" s="17"/>
-      <c r="Q51" s="21" t="s">
+      <c r="N51" s="41"/>
+      <c r="Q51" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="51"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G52" s="1" t="s">
@@ -3165,21 +3193,21 @@
       <c r="L53" s="2">
         <v>1</v>
       </c>
-      <c r="Q53" s="17" t="s">
+      <c r="Q53" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
       <c r="G54" s="2">
         <v>2</v>
       </c>
@@ -3195,10 +3223,10 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
       <c r="G55" s="2">
         <v>3</v>
       </c>
@@ -3259,31 +3287,31 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="G59" s="17" t="s">
+      <c r="G59" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="H59" s="17"/>
+      <c r="H59" s="41"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K60" s="4"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="I63" s="27" t="s">
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="I63" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -3552,22 +3580,22 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="I74" s="27" t="s">
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="I74" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="27"/>
-      <c r="M74" s="27"/>
-      <c r="N74" s="27"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
@@ -3848,28 +3876,28 @@
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:19" ht="21" x14ac:dyDescent="0.4">
-      <c r="A85" s="45" t="s">
+      <c r="A85" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="45"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="45"/>
-      <c r="I85" s="45" t="s">
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="I85" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="J85" s="45"/>
-      <c r="K85" s="45"/>
-      <c r="L85" s="45"/>
-      <c r="M85" s="45"/>
-      <c r="N85" s="45"/>
-      <c r="P85" s="12" t="s">
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="20"/>
+      <c r="P85" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="Q85" s="12"/>
-      <c r="R85" s="12"/>
-      <c r="S85" s="12"/>
+      <c r="Q85" s="46"/>
+      <c r="R85" s="46"/>
+      <c r="S85" s="46"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
@@ -4154,24 +4182,24 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
-      <c r="B97" s="46" t="s">
+      <c r="B97" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C97" s="47"/>
-      <c r="D97" s="47"/>
-      <c r="E97" s="47"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="48"/>
-      <c r="I97" s="18" t="s">
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="24"/>
+      <c r="I97" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="J97" s="19"/>
-      <c r="L97" s="26" t="s">
+      <c r="J97" s="49"/>
+      <c r="L97" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="M97" s="26"/>
-      <c r="N97" s="26"/>
-      <c r="O97" s="26"/>
+      <c r="M97" s="56"/>
+      <c r="N97" s="56"/>
+      <c r="O97" s="56"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
@@ -4199,10 +4227,10 @@
       <c r="J98" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L98" s="26"/>
-      <c r="M98" s="26"/>
-      <c r="N98" s="26"/>
-      <c r="O98" s="26"/>
+      <c r="L98" s="56"/>
+      <c r="M98" s="56"/>
+      <c r="N98" s="56"/>
+      <c r="O98" s="56"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
@@ -4230,11 +4258,11 @@
       <c r="J99" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L99" s="20" t="s">
+      <c r="L99" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="M99" s="20"/>
-      <c r="N99" s="20"/>
+      <c r="M99" s="50"/>
+      <c r="N99" s="50"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
@@ -4262,9 +4290,9 @@
       <c r="J100" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L100" s="20"/>
-      <c r="M100" s="20"/>
-      <c r="N100" s="20"/>
+      <c r="L100" s="50"/>
+      <c r="M100" s="50"/>
+      <c r="N100" s="50"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
@@ -4379,8 +4407,8 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
+      <c r="F106" s="47"/>
+      <c r="G106" s="47"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
@@ -4389,22 +4417,22 @@
       <c r="A108" s="3"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B109" s="23" t="s">
+      <c r="B109" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="24"/>
-      <c r="I109" s="25"/>
-      <c r="K109" s="26" t="s">
+      <c r="C109" s="54"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="55"/>
+      <c r="K109" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="L109" s="26"/>
-      <c r="M109" s="26"/>
-      <c r="N109" s="26"/>
+      <c r="L109" s="56"/>
+      <c r="M109" s="56"/>
+      <c r="N109" s="56"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B110" s="1" t="s">
@@ -4429,10 +4457,10 @@
       <c r="I110" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K110" s="26"/>
-      <c r="L110" s="26"/>
-      <c r="M110" s="26"/>
-      <c r="N110" s="26"/>
+      <c r="K110" s="56"/>
+      <c r="L110" s="56"/>
+      <c r="M110" s="56"/>
+      <c r="N110" s="56"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B111" s="2">
@@ -4474,12 +4502,12 @@
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-      <c r="K112" s="13" t="s">
+      <c r="K112" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="L112" s="13"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="13"/>
+      <c r="L112" s="44"/>
+      <c r="M112" s="44"/>
+      <c r="N112" s="44"/>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="2">
@@ -4498,10 +4526,10 @@
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-      <c r="K113" s="13"/>
-      <c r="L113" s="13"/>
-      <c r="M113" s="13"/>
-      <c r="N113" s="13"/>
+      <c r="K113" s="44"/>
+      <c r="L113" s="44"/>
+      <c r="M113" s="44"/>
+      <c r="N113" s="44"/>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="2">
@@ -4520,10 +4548,10 @@
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-      <c r="K114" s="13"/>
-      <c r="L114" s="13"/>
-      <c r="M114" s="13"/>
-      <c r="N114" s="13"/>
+      <c r="K114" s="44"/>
+      <c r="L114" s="44"/>
+      <c r="M114" s="44"/>
+      <c r="N114" s="44"/>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="2">
@@ -4542,10 +4570,10 @@
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-      <c r="K115" s="13"/>
-      <c r="L115" s="13"/>
-      <c r="M115" s="13"/>
-      <c r="N115" s="13"/>
+      <c r="K115" s="44"/>
+      <c r="L115" s="44"/>
+      <c r="M115" s="44"/>
+      <c r="N115" s="44"/>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="2">
@@ -4564,48 +4592,48 @@
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="13"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="13"/>
+      <c r="K116" s="44"/>
+      <c r="L116" s="44"/>
+      <c r="M116" s="44"/>
+      <c r="N116" s="44"/>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="K117" s="13"/>
-      <c r="L117" s="13"/>
-      <c r="M117" s="13"/>
-      <c r="N117" s="13"/>
+      <c r="K117" s="44"/>
+      <c r="L117" s="44"/>
+      <c r="M117" s="44"/>
+      <c r="N117" s="44"/>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="K118" s="13"/>
-      <c r="L118" s="13"/>
-      <c r="M118" s="13"/>
-      <c r="N118" s="13"/>
+      <c r="K118" s="44"/>
+      <c r="L118" s="44"/>
+      <c r="M118" s="44"/>
+      <c r="N118" s="44"/>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>151</v>
       </c>
-      <c r="K121" s="14" t="s">
+      <c r="K121" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="L121" s="14"/>
-      <c r="M121" s="14"/>
-      <c r="N121" s="14"/>
+      <c r="L121" s="45"/>
+      <c r="M121" s="45"/>
+      <c r="N121" s="45"/>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B122" s="22" t="s">
+      <c r="B122" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="22"/>
-      <c r="H122" s="22"/>
-      <c r="K122" s="14"/>
-      <c r="L122" s="14"/>
-      <c r="M122" s="14"/>
-      <c r="N122" s="14"/>
+      <c r="C122" s="52"/>
+      <c r="D122" s="52"/>
+      <c r="E122" s="52"/>
+      <c r="F122" s="52"/>
+      <c r="G122" s="52"/>
+      <c r="H122" s="52"/>
+      <c r="K122" s="45"/>
+      <c r="L122" s="45"/>
+      <c r="M122" s="45"/>
+      <c r="N122" s="45"/>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1" t="s">
@@ -4629,10 +4657,10 @@
       <c r="H123" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K123" s="14"/>
-      <c r="L123" s="14"/>
-      <c r="M123" s="14"/>
-      <c r="N123" s="14"/>
+      <c r="K123" s="45"/>
+      <c r="L123" s="45"/>
+      <c r="M123" s="45"/>
+      <c r="N123" s="45"/>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1">
@@ -4656,10 +4684,10 @@
       <c r="H124" s="1">
         <v>1</v>
       </c>
-      <c r="K124" s="14"/>
-      <c r="L124" s="14"/>
-      <c r="M124" s="14"/>
-      <c r="N124" s="14"/>
+      <c r="K124" s="45"/>
+      <c r="L124" s="45"/>
+      <c r="M124" s="45"/>
+      <c r="N124" s="45"/>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="1">
@@ -4683,10 +4711,10 @@
       <c r="H125" s="1">
         <v>3</v>
       </c>
-      <c r="K125" s="14"/>
-      <c r="L125" s="14"/>
-      <c r="M125" s="14"/>
-      <c r="N125" s="14"/>
+      <c r="K125" s="45"/>
+      <c r="L125" s="45"/>
+      <c r="M125" s="45"/>
+      <c r="N125" s="45"/>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1">
@@ -5011,15 +5039,15 @@
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B143" s="55" t="s">
+      <c r="B143" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C143" s="56"/>
-      <c r="D143" s="56"/>
-      <c r="E143" s="56"/>
-      <c r="F143" s="56"/>
-      <c r="G143" s="56"/>
-      <c r="H143" s="56"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="17"/>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B144" s="1" t="s">
@@ -5040,12 +5068,12 @@
       <c r="G144" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H144" s="57" t="s">
+      <c r="H144" s="1" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="145" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C145" s="54" t="s">
+      <c r="C145" s="13" t="s">
         <v>223</v>
       </c>
       <c r="G145" t="s">
@@ -5054,32 +5082,18 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="AC12:AC14"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X16:X18"/>
-    <mergeCell ref="AC16:AC18"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="AC8:AC10"/>
-    <mergeCell ref="I85:N85"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="O18:Q19"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="I74:N74"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="B122:H122"/>
+    <mergeCell ref="B109:I109"/>
+    <mergeCell ref="L97:O98"/>
+    <mergeCell ref="K109:N110"/>
+    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="L99:N100"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="L1:N1"/>
@@ -5092,22 +5106,36 @@
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="E40:G40"/>
     <mergeCell ref="K51:L51"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="O18:Q19"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AC8:AC10"/>
+    <mergeCell ref="I85:N85"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="I74:N74"/>
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="K112:N118"/>
     <mergeCell ref="K121:N125"/>
     <mergeCell ref="P85:S85"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="L99:N100"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="B122:H122"/>
-    <mergeCell ref="B109:I109"/>
-    <mergeCell ref="L97:O98"/>
-    <mergeCell ref="K109:N110"/>
-    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="AC12:AC14"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X16:X18"/>
+    <mergeCell ref="AC16:AC18"/>
+    <mergeCell ref="X21:Z21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5129,11 +5157,11 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
@@ -5356,11 +5384,11 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
     </row>
     <row r="36" spans="2:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
